--- a/biology/Zoologie/Ernest_Candèze/Ernest_Candèze.xlsx
+++ b/biology/Zoologie/Ernest_Candèze/Ernest_Candèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ernest_Cand%C3%A8ze</t>
+          <t>Ernest_Candèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Charles Auguste Candèze est un médecin et un entomologiste amateur belge, né le 22 février 1827 à Liège et mort le 30 juin 1898 à Glain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ernest_Cand%C3%A8ze</t>
+          <t>Ernest_Candèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Liège auprès de Théodore Lacordaire (1801-1870), comme Félicien Chapuis auquel il se lie. Il fait des études de médecine à Paris et à Liège. Sur les conseils de Lacordaire, il fonde le cercle des entomologistes liégeois que fréquentent son ami de longue date, Félicien Chapuis (1824-1879) mais aussi Edmond de Sélys Longchamps (1813-1900) et le Britannique Robert Mac Lachlan (1837-1904). Il participe à la fondation de la Société royale belge d’entomologie.
 C’est Lacordaire qui l’incite à se spécialiser dans les Élatérides sur lesquels il publie d’importantes révisions dont Monographie des Élatérides (quatre volumes, Liège, 1857-1863). Ami de l’éditeur français Pierre-Jules Hetzel (1814-1886), celui-ci lui commande d’écrire des romans scientifiques afin de populariser l’entomologie auprès d’un plus large public : Aventures d'un grillon (Paris, 1877), La Gileppe, les infortunes d'une population d'insectes (Paris, 1879), qui connaît un certain succès, et Périnette, histoire surprenante de cinq moineaux... (Paris, 1886).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ernest_Cand%C3%A8ze</t>
+          <t>Ernest_Candèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1996, Ernest Candèze est l'un des 26 photographes belges mis à l'honneur au FotoMuseum Antwerpen (Musée de la Photographie à Anvers), lors de l'exposition Pioniers in Beeld.
 </t>
